--- a/Provodnik/_шаблоны/Ф6_ost.xlsx
+++ b/Provodnik/_шаблоны/Ф6_ost.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9195"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>

--- a/Provodnik/_шаблоны/Ф6_ost.xlsx
+++ b/Provodnik/_шаблоны/Ф6_ost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>№ п/п</t>
   </si>
@@ -52,11 +52,6 @@
     <t>ЗАЯВКА</t>
   </si>
   <si>
-    <t>Начальник пассажирского вагонного депо/участка _____________________________________________
-Руководитель отдела управления персоналом          
-и социального развития пассажирского вагонного депо/участка __________________________________</t>
-  </si>
-  <si>
     <t xml:space="preserve"> на выдачу транспортных требований </t>
   </si>
   <si>
@@ -66,32 +61,16 @@
     <t xml:space="preserve">Вагонного участка Санкт-Петербург  - Московский  Северо-Западного филиала АО «ФПК»  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Код подразделения   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>4000004192</t>
-    </r>
+    <t>Код подразделения</t>
+  </si>
+  <si>
+    <t>Руководитель отдела управления персоналом</t>
+  </si>
+  <si>
+    <t>и социального развития пассажирского вагонного депо/участка __________________________________</t>
+  </si>
+  <si>
+    <t>Начальник пассажирского вагонного депо/участка _____________________________________________</t>
   </si>
 </sst>
 </file>
@@ -101,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,32 +107,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -167,20 +120,26 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,53 +206,57 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,116 +559,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8"/>
-    <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="14.140625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="22" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="19"/>
+    <col min="9" max="9" width="16.5703125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -742,196 +705,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A10:K17"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
   </mergeCells>

--- a/Provodnik/_шаблоны/Ф6_ost.xlsx
+++ b/Provodnik/_шаблоны/Ф6_ost.xlsx
@@ -37,9 +37,6 @@
     <t>Место жительства (согласно регистрации)</t>
   </si>
   <si>
-    <t>Паспорт, СНИЛС</t>
-  </si>
-  <si>
     <t>Маршрут проезда</t>
   </si>
   <si>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t>Начальник пассажирского вагонного депо/участка _____________________________________________</t>
+  </si>
+  <si>
+    <t>Паспорт, СНИЛС,
+ИНН</t>
   </si>
 </sst>
 </file>
@@ -224,39 +225,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,102 +563,102 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="22" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="16" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="19"/>
-    <col min="9" max="9" width="16.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="14.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16"/>
+    <col min="9" max="9" width="16.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -670,7 +671,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,49 +688,49 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -745,66 +746,66 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
